--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3777.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3777.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.5699112797689</v>
+        <v>1.805752277374268</v>
       </c>
       <c r="B1">
-        <v>2.672439312210494</v>
+        <v>4.353612899780273</v>
       </c>
       <c r="C1">
-        <v>3.02591761458625</v>
+        <v>3.865099906921387</v>
       </c>
       <c r="D1">
-        <v>3.565517468822522</v>
+        <v>1.429892897605896</v>
       </c>
       <c r="E1">
-        <v>2.34013136964683</v>
+        <v>0.6780727505683899</v>
       </c>
     </row>
   </sheetData>
